--- a/data/processed/ci_14.xlsx
+++ b/data/processed/ci_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,40 +521,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t>1 - a - Wholesale Income ($000s)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>97350</v>
       </c>
       <c r="G2" t="n">
-        <v>63</v>
+        <v>76582</v>
       </c>
       <c r="H2" t="n">
-        <v>76.5</v>
+        <v>140017.5</v>
       </c>
       <c r="I2" t="n">
-        <v>66</v>
+        <v>199764</v>
       </c>
       <c r="J2" t="n">
-        <v>68</v>
+        <v>185850</v>
       </c>
       <c r="K2" t="n">
-        <v>66.7</v>
+        <v>139912.7</v>
       </c>
       <c r="L2" t="n">
-        <v>66.875</v>
+        <v>124949.875</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.875</v>
+        <v>74814.125</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.01308411214953271</v>
+        <v>0.5987530999930972</v>
       </c>
     </row>
     <row r="3">
@@ -573,12 +573,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -625,40 +625,40 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.5</v>
+        <v>55</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>59</v>
       </c>
       <c r="H4" t="n">
-        <v>6.4</v>
+        <v>73.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.3</v>
+        <v>62</v>
       </c>
       <c r="J4" t="n">
-        <v>6.3</v>
+        <v>63</v>
       </c>
       <c r="K4" t="n">
-        <v>6.06</v>
+        <v>62.5</v>
       </c>
       <c r="L4" t="n">
-        <v>6.000000000000001</v>
+        <v>62.625</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2999999999999989</v>
+        <v>-0.625</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04999999999999982</v>
+        <v>-0.009980039920159681</v>
       </c>
     </row>
     <row r="5">
@@ -677,40 +677,40 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>244.2</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>299.9</v>
+        <v>63</v>
       </c>
       <c r="H5" t="n">
-        <v>297.9</v>
+        <v>76.5</v>
       </c>
       <c r="I5" t="n">
-        <v>249</v>
+        <v>66</v>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="K5" t="n">
-        <v>268.2</v>
+        <v>66.7</v>
       </c>
       <c r="L5" t="n">
-        <v>273</v>
+        <v>66.875</v>
       </c>
       <c r="M5" t="n">
-        <v>-24</v>
+        <v>-0.875</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.08791208791208792</v>
+        <v>-0.01308411214953271</v>
       </c>
     </row>
     <row r="6">
@@ -729,40 +729,40 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>-44</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>-4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.5</v>
+        <v>22.5</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="7">
@@ -781,40 +781,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t>1 - c - Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3000</v>
+        <v>1760</v>
       </c>
       <c r="G7" t="n">
-        <v>3000</v>
+        <v>1291</v>
       </c>
       <c r="H7" t="n">
-        <v>9500</v>
+        <v>1896</v>
       </c>
       <c r="I7" t="n">
-        <v>7500</v>
+        <v>3204</v>
       </c>
       <c r="J7" t="n">
-        <v>7750</v>
+        <v>2994</v>
       </c>
       <c r="K7" t="n">
-        <v>6150</v>
+        <v>2229</v>
       </c>
       <c r="L7" t="n">
-        <v>5812.5</v>
+        <v>1985.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1687.5</v>
+        <v>1218.75</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.6139025311673593</v>
       </c>
     </row>
     <row r="8">
@@ -833,40 +833,40 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t>1 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1973</v>
+        <v>1770</v>
       </c>
       <c r="G8" t="n">
-        <v>810</v>
+        <v>1298</v>
       </c>
       <c r="H8" t="n">
-        <v>3388</v>
+        <v>1905</v>
       </c>
       <c r="I8" t="n">
-        <v>5070</v>
+        <v>3222</v>
       </c>
       <c r="J8" t="n">
-        <v>4209</v>
+        <v>2950</v>
       </c>
       <c r="K8" t="n">
-        <v>3090</v>
+        <v>2229</v>
       </c>
       <c r="L8" t="n">
-        <v>2595</v>
+        <v>1980.75</v>
       </c>
       <c r="M8" t="n">
-        <v>2475</v>
+        <v>1241.25</v>
       </c>
       <c r="N8" t="n">
-        <v>0.953757225433526</v>
+        <v>0.6266565694812571</v>
       </c>
     </row>
     <row r="9">
@@ -885,40 +885,40 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18000</v>
+        <v>0.1588</v>
       </c>
       <c r="G9" t="n">
-        <v>4000</v>
+        <v>0.1165</v>
       </c>
       <c r="H9" t="n">
-        <v>18000</v>
+        <v>0.1709</v>
       </c>
       <c r="I9" t="n">
-        <v>15000</v>
+        <v>0.2891</v>
       </c>
       <c r="J9" t="n">
-        <v>15000</v>
+        <v>0.2647</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>0.2</v>
       </c>
       <c r="L9" t="n">
-        <v>13750</v>
+        <v>0.177725</v>
       </c>
       <c r="M9" t="n">
-        <v>1250</v>
+        <v>0.111375</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.6266704177802787</v>
       </c>
     </row>
     <row r="10">
@@ -937,40 +937,40 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - e - Model Availability</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>244.2</v>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>299.9</v>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>297.9</v>
       </c>
       <c r="I10" t="n">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="J10" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>98</v>
+        <v>268.2</v>
       </c>
       <c r="L10" t="n">
-        <v>82.5</v>
+        <v>273</v>
       </c>
       <c r="M10" t="n">
-        <v>77.5</v>
+        <v>-24</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9393939393939394</v>
+        <v>-0.08791208791208792</v>
       </c>
     </row>
     <row r="11">
@@ -989,40 +989,40 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>64</v>
+        <v>5.5</v>
       </c>
       <c r="G11" t="n">
-        <v>73</v>
+        <v>5.8</v>
       </c>
       <c r="H11" t="n">
-        <v>80</v>
+        <v>6.4</v>
       </c>
       <c r="I11" t="n">
-        <v>78</v>
+        <v>6.3</v>
       </c>
       <c r="J11" t="n">
-        <v>84</v>
+        <v>6.3</v>
       </c>
       <c r="K11" t="n">
-        <v>75.8</v>
+        <v>6.06</v>
       </c>
       <c r="L11" t="n">
-        <v>75.25</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>2.75</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03654485049833887</v>
+        <v>0.04999999999999982</v>
       </c>
     </row>
     <row r="12">
@@ -1041,40 +1041,40 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t>1 - f - Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1760</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>1291</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>1896</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>3204</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2994</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>2229</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1985.25</v>
+        <v>2.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1218.75</v>
+        <v>-0.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6139025311673593</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="13">
@@ -1093,40 +1093,40 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t>1 - f - Retail Outlets</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>1973</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>810</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>3388</v>
       </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>5070</v>
       </c>
       <c r="J13" t="n">
-        <v>-44</v>
+        <v>4209</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3090</v>
       </c>
       <c r="L13" t="n">
-        <v>-4.5</v>
+        <v>2595</v>
       </c>
       <c r="M13" t="n">
-        <v>22.5</v>
+        <v>2475</v>
       </c>
       <c r="N13" t="n">
-        <v>-5</v>
+        <v>0.953757225433526</v>
       </c>
     </row>
     <row r="14">
@@ -1145,40 +1145,40 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1770</v>
+        <v>3000</v>
       </c>
       <c r="G14" t="n">
-        <v>1298</v>
+        <v>3000</v>
       </c>
       <c r="H14" t="n">
-        <v>1905</v>
+        <v>9500</v>
       </c>
       <c r="I14" t="n">
-        <v>3222</v>
+        <v>7500</v>
       </c>
       <c r="J14" t="n">
-        <v>2950</v>
+        <v>7750</v>
       </c>
       <c r="K14" t="n">
-        <v>2229</v>
+        <v>6150</v>
       </c>
       <c r="L14" t="n">
-        <v>1980.75</v>
+        <v>5812.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1241.25</v>
+        <v>1687.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6266565694812571</v>
+        <v>0.2903225806451613</v>
       </c>
     </row>
     <row r="15">
@@ -1197,40 +1197,40 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+          <t>1 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.1588</v>
+        <v>18000</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1165</v>
+        <v>4000</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1709</v>
+        <v>18000</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2891</v>
+        <v>15000</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2647</v>
+        <v>15000</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>0.177725</v>
+        <v>13750</v>
       </c>
       <c r="M15" t="n">
-        <v>0.111375</v>
+        <v>1250</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6266704177802787</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="16">
@@ -1244,45 +1244,45 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="G16" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H16" t="n">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="I16" t="n">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="J16" t="n">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="K16" t="n">
-        <v>100</v>
+        <v>75.8</v>
       </c>
       <c r="L16" t="n">
-        <v>98.5</v>
+        <v>75.25</v>
       </c>
       <c r="M16" t="n">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N16" t="n">
-        <v>0.07614213197969544</v>
+        <v>0.03654485049833887</v>
       </c>
     </row>
     <row r="17">
@@ -1296,45 +1296,45 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.8</v>
+        <v>40</v>
       </c>
       <c r="H17" t="n">
-        <v>6.4</v>
+        <v>60</v>
       </c>
       <c r="I17" t="n">
-        <v>6.3</v>
+        <v>160</v>
       </c>
       <c r="J17" t="n">
-        <v>6.3</v>
+        <v>230</v>
       </c>
       <c r="K17" t="n">
-        <v>6.06</v>
+        <v>98</v>
       </c>
       <c r="L17" t="n">
-        <v>6.000000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2999999999999989</v>
+        <v>77.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04999999999999982</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="18">
@@ -1353,40 +1353,40 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>2 - a - Retail Income ($000s)</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>244.2</v>
+        <v>51750</v>
       </c>
       <c r="G18" t="n">
-        <v>299.9</v>
+        <v>28576</v>
       </c>
       <c r="H18" t="n">
-        <v>297.9</v>
+        <v>68016</v>
       </c>
       <c r="I18" t="n">
-        <v>249</v>
+        <v>63918</v>
       </c>
       <c r="J18" t="n">
-        <v>250</v>
+        <v>53934</v>
       </c>
       <c r="K18" t="n">
-        <v>268.2</v>
+        <v>53238.8</v>
       </c>
       <c r="L18" t="n">
-        <v>273</v>
+        <v>50569</v>
       </c>
       <c r="M18" t="n">
-        <v>-24</v>
+        <v>13349</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.08791208791208792</v>
+        <v>0.2639759536474915</v>
       </c>
     </row>
     <row r="19">
@@ -1405,40 +1405,40 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t>2 - b - Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6</v>
+        <v>100</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5</v>
+        <v>98.5</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0.07614213197969544</v>
       </c>
     </row>
     <row r="20">
@@ -1457,40 +1457,40 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t>2 - c - Online Orders (000s)</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8000</v>
+        <v>575</v>
       </c>
       <c r="G20" t="n">
-        <v>6000</v>
+        <v>304</v>
       </c>
       <c r="H20" t="n">
-        <v>14000</v>
+        <v>624</v>
       </c>
       <c r="I20" t="n">
-        <v>13000</v>
+        <v>603</v>
       </c>
       <c r="J20" t="n">
-        <v>9500</v>
+        <v>534</v>
       </c>
       <c r="K20" t="n">
-        <v>10100</v>
+        <v>528</v>
       </c>
       <c r="L20" t="n">
-        <v>9375</v>
+        <v>509.25</v>
       </c>
       <c r="M20" t="n">
-        <v>3625</v>
+        <v>93.75</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3866666666666667</v>
+        <v>0.1840942562592047</v>
       </c>
     </row>
     <row r="21">
@@ -1509,40 +1509,40 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>2 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>18000</v>
+        <v>575</v>
       </c>
       <c r="G21" t="n">
-        <v>4000</v>
+        <v>304</v>
       </c>
       <c r="H21" t="n">
-        <v>18000</v>
+        <v>624</v>
       </c>
       <c r="I21" t="n">
-        <v>15000</v>
+        <v>603</v>
       </c>
       <c r="J21" t="n">
-        <v>15000</v>
+        <v>534</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>528</v>
       </c>
       <c r="L21" t="n">
-        <v>13750</v>
+        <v>509.25</v>
       </c>
       <c r="M21" t="n">
-        <v>1250</v>
+        <v>93.75</v>
       </c>
       <c r="N21" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1840942562592047</v>
       </c>
     </row>
     <row r="22">
@@ -1561,40 +1561,40 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>2 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.2178</v>
       </c>
       <c r="G22" t="n">
-        <v>40</v>
+        <v>0.1152</v>
       </c>
       <c r="H22" t="n">
-        <v>60</v>
+        <v>0.2364</v>
       </c>
       <c r="I22" t="n">
-        <v>160</v>
+        <v>0.2284</v>
       </c>
       <c r="J22" t="n">
-        <v>230</v>
+        <v>0.2023</v>
       </c>
       <c r="K22" t="n">
-        <v>98</v>
+        <v>0.2000199999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>82.5</v>
+        <v>0.192925</v>
       </c>
       <c r="M22" t="n">
-        <v>77.5</v>
+        <v>0.03547500000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.183879746015291</v>
       </c>
     </row>
     <row r="23">
@@ -1613,40 +1613,40 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>2 - e - Model Availability</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>64</v>
+        <v>244.2</v>
       </c>
       <c r="G23" t="n">
-        <v>73</v>
+        <v>299.9</v>
       </c>
       <c r="H23" t="n">
-        <v>80</v>
+        <v>297.9</v>
       </c>
       <c r="I23" t="n">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="J23" t="n">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="K23" t="n">
-        <v>75.8</v>
+        <v>268.2</v>
       </c>
       <c r="L23" t="n">
-        <v>75.25</v>
+        <v>273</v>
       </c>
       <c r="M23" t="n">
-        <v>2.75</v>
+        <v>-24</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03654485049833887</v>
+        <v>-0.08791208791208792</v>
       </c>
     </row>
     <row r="24">
@@ -1665,40 +1665,40 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>575</v>
+        <v>5.5</v>
       </c>
       <c r="G24" t="n">
-        <v>304</v>
+        <v>5.8</v>
       </c>
       <c r="H24" t="n">
-        <v>624</v>
+        <v>6.4</v>
       </c>
       <c r="I24" t="n">
-        <v>603</v>
+        <v>6.3</v>
       </c>
       <c r="J24" t="n">
-        <v>534</v>
+        <v>6.3</v>
       </c>
       <c r="K24" t="n">
-        <v>528</v>
+        <v>6.06</v>
       </c>
       <c r="L24" t="n">
-        <v>509.25</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>93.75</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1840942562592047</v>
+        <v>0.04999999999999982</v>
       </c>
     </row>
     <row r="25">
@@ -1717,40 +1717,40 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+          <t>2 - f - Free Shipping</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>575</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>624</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>603</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>534</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>528</v>
+        <v>0.6</v>
       </c>
       <c r="L25" t="n">
-        <v>509.25</v>
+        <v>0.5</v>
       </c>
       <c r="M25" t="n">
-        <v>93.75</v>
+        <v>0.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1840942562592047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1769,40 +1769,40 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+          <t>2 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.2178</v>
+        <v>18000</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1152</v>
+        <v>4000</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2364</v>
+        <v>18000</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2284</v>
+        <v>15000</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2023</v>
+        <v>15000</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2000199999999999</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>0.192925</v>
+        <v>13750</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03547500000000001</v>
+        <v>1250</v>
       </c>
       <c r="N26" t="n">
-        <v>0.183879746015291</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="27">
@@ -1816,45 +1816,45 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G27" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="H27" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K27" t="n">
-        <v>23.4</v>
+        <v>75.8</v>
       </c>
       <c r="L27" t="n">
-        <v>29.25</v>
+        <v>75.25</v>
       </c>
       <c r="M27" t="n">
-        <v>-29.25</v>
+        <v>2.75</v>
       </c>
       <c r="N27" t="n">
-        <v>-1</v>
+        <v>0.03654485049833887</v>
       </c>
     </row>
     <row r="28">
@@ -1868,45 +1868,45 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+          <t>2 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.6</v>
+        <v>40</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>60</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K28" t="n">
-        <v>1.86</v>
+        <v>98</v>
       </c>
       <c r="L28" t="n">
-        <v>2.325</v>
+        <v>82.5</v>
       </c>
       <c r="M28" t="n">
-        <v>-2.325</v>
+        <v>77.5</v>
       </c>
       <c r="N28" t="n">
-        <v>-1</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="29">
@@ -1920,45 +1920,45 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Offered (000s)</t>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G29" t="n">
-        <v>429</v>
+        <v>6000</v>
       </c>
       <c r="H29" t="n">
-        <v>1169</v>
+        <v>14000</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="K29" t="n">
-        <v>319.6</v>
+        <v>10100</v>
       </c>
       <c r="L29" t="n">
-        <v>399.5</v>
+        <v>9375</v>
       </c>
       <c r="M29" t="n">
-        <v>-399.5</v>
+        <v>3625</v>
       </c>
       <c r="N29" t="n">
-        <v>-1</v>
+        <v>0.3866666666666667</v>
       </c>
     </row>
     <row r="30">
@@ -1977,19 +1977,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+          <t>3 - a - Offer Income ($000s)</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>429</v>
+        <v>19305</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>85.8</v>
+        <v>3861</v>
       </c>
       <c r="L30" t="n">
-        <v>107.25</v>
+        <v>4826.25</v>
       </c>
       <c r="M30" t="n">
-        <v>-107.25</v>
+        <v>-4826.25</v>
       </c>
       <c r="N30" t="n">
         <v>-1</v>
@@ -2029,22 +2029,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+          <t>3 - b - Offer Price (max = $40.00)</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.283</v>
+        <v>45</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0566</v>
+        <v>23.4</v>
       </c>
       <c r="L31" t="n">
-        <v>0.07074999999999999</v>
+        <v>29.25</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.07074999999999999</v>
+        <v>-29.25</v>
       </c>
       <c r="N31" t="n">
         <v>-1</v>
@@ -2071,50 +2071,50 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Europe-Africa</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t>3 - c - Pairs Offered (000s)</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="H32" t="n">
-        <v>81</v>
+        <v>1169</v>
       </c>
       <c r="I32" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>72.2</v>
+        <v>319.6</v>
       </c>
       <c r="L32" t="n">
-        <v>72.25</v>
+        <v>399.5</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.25</v>
+        <v>-399.5</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.003460207612456748</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -2123,50 +2123,50 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Europe-Africa</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t>3 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>429</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>4.2</v>
+        <v>85.8</v>
       </c>
       <c r="L33" t="n">
-        <v>4.5</v>
+        <v>107.25</v>
       </c>
       <c r="M33" t="n">
-        <v>-1.5</v>
+        <v>-107.25</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
@@ -2175,50 +2175,50 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Europe-Africa</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>3 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.5</v>
+        <v>0.283</v>
       </c>
       <c r="H34" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>5.86</v>
+        <v>0.0566</v>
       </c>
       <c r="L34" t="n">
-        <v>5.825</v>
+        <v>0.07074999999999999</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1749999999999998</v>
+        <v>-0.07074999999999999</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03004291845493559</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
@@ -2227,50 +2227,50 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Europe-Africa</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>279.9</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>300</v>
+        <v>4.6</v>
       </c>
       <c r="H35" t="n">
-        <v>297.5</v>
+        <v>4.7</v>
       </c>
       <c r="I35" t="n">
-        <v>213.2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>268.12</v>
+        <v>1.86</v>
       </c>
       <c r="L35" t="n">
-        <v>281.85</v>
+        <v>2.325</v>
       </c>
       <c r="M35" t="n">
-        <v>-68.65000000000003</v>
+        <v>-2.325</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.2435692744367572</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
@@ -2289,40 +2289,40 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t>1 - a - Wholesale Income ($000s)</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>160332</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>103005</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>137046</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>75279</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>157556</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>126643.6</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>139484.75</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>-64205.75</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-0.4603065926561865</v>
       </c>
     </row>
     <row r="37">
@@ -2341,40 +2341,40 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>6000</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>9500</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>6000</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>7000</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>6500</v>
+        <v>4.2</v>
       </c>
       <c r="L37" t="n">
-        <v>6625</v>
+        <v>4.5</v>
       </c>
       <c r="M37" t="n">
-        <v>-625</v>
+        <v>-1.5</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.09433962264150944</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="38">
@@ -2393,40 +2393,40 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4217</v>
+        <v>62</v>
       </c>
       <c r="G38" t="n">
-        <v>1388</v>
+        <v>63</v>
       </c>
       <c r="H38" t="n">
-        <v>3624</v>
+        <v>78</v>
       </c>
       <c r="I38" t="n">
-        <v>2065</v>
+        <v>69</v>
       </c>
       <c r="J38" t="n">
-        <v>3628</v>
+        <v>68</v>
       </c>
       <c r="K38" t="n">
-        <v>2984.4</v>
+        <v>68</v>
       </c>
       <c r="L38" t="n">
-        <v>3214.25</v>
+        <v>67.75</v>
       </c>
       <c r="M38" t="n">
-        <v>-1149.25</v>
+        <v>1.25</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.3575484172046356</v>
+        <v>0.01845018450184502</v>
       </c>
     </row>
     <row r="39">
@@ -2445,40 +2445,40 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>20000</v>
+        <v>66</v>
       </c>
       <c r="G39" t="n">
-        <v>12000</v>
+        <v>69</v>
       </c>
       <c r="H39" t="n">
-        <v>17000</v>
+        <v>81</v>
       </c>
       <c r="I39" t="n">
-        <v>9000</v>
+        <v>72</v>
       </c>
       <c r="J39" t="n">
-        <v>14000</v>
+        <v>73</v>
       </c>
       <c r="K39" t="n">
-        <v>14400</v>
+        <v>72.2</v>
       </c>
       <c r="L39" t="n">
-        <v>15750</v>
+        <v>72.25</v>
       </c>
       <c r="M39" t="n">
-        <v>-6750</v>
+        <v>-0.25</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.4285714285714285</v>
+        <v>-0.003460207612456748</v>
       </c>
     </row>
     <row r="40">
@@ -2497,41 +2497,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.6571428571428571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2549,40 +2547,40 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - c - Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>64</v>
+        <v>2586</v>
       </c>
       <c r="G41" t="n">
-        <v>73</v>
+        <v>1635</v>
       </c>
       <c r="H41" t="n">
-        <v>80</v>
+        <v>1757</v>
       </c>
       <c r="I41" t="n">
-        <v>78</v>
+        <v>1091</v>
       </c>
       <c r="J41" t="n">
-        <v>84</v>
+        <v>2317</v>
       </c>
       <c r="K41" t="n">
-        <v>75.8</v>
+        <v>1877.2</v>
       </c>
       <c r="L41" t="n">
-        <v>75.25</v>
+        <v>2073.75</v>
       </c>
       <c r="M41" t="n">
-        <v>2.75</v>
+        <v>-982.75</v>
       </c>
       <c r="N41" t="n">
-        <v>0.03654485049833887</v>
+        <v>-0.4738999397227245</v>
       </c>
     </row>
     <row r="42">
@@ -2601,12 +2599,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t>1 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2653,39 +2651,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t>1 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.2755</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.1742</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.1872</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.1162</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.2469</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.22095</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>-0.10475</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.4740891604435393</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2703,40 +2703,40 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+          <t>1 - e - Model Availability</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2586</v>
+        <v>279.9</v>
       </c>
       <c r="G44" t="n">
-        <v>1635</v>
+        <v>300</v>
       </c>
       <c r="H44" t="n">
-        <v>1757</v>
+        <v>297.5</v>
       </c>
       <c r="I44" t="n">
-        <v>1091</v>
+        <v>213.2</v>
       </c>
       <c r="J44" t="n">
-        <v>2317</v>
+        <v>250</v>
       </c>
       <c r="K44" t="n">
-        <v>1877.2</v>
+        <v>268.12</v>
       </c>
       <c r="L44" t="n">
-        <v>2073.75</v>
+        <v>281.85</v>
       </c>
       <c r="M44" t="n">
-        <v>-982.75</v>
+        <v>-68.65000000000003</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.4738999397227245</v>
+        <v>-0.2435692744367572</v>
       </c>
     </row>
     <row r="45">
@@ -2755,40 +2755,40 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.2755</v>
+        <v>5.1</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1742</v>
+        <v>5.5</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1872</v>
+        <v>6.2</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1162</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2469</v>
+        <v>6.5</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2</v>
+        <v>5.86</v>
       </c>
       <c r="L45" t="n">
-        <v>0.22095</v>
+        <v>5.825</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.10475</v>
+        <v>0.1749999999999998</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.4740891604435393</v>
+        <v>0.03004291845493559</v>
       </c>
     </row>
     <row r="46">
@@ -2802,45 +2802,45 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t>1 - f - Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>98.5</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>105.7</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
-        <v>104.875</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>4.125</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.03933253873659118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2854,45 +2854,45 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - f - Retail Outlets</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.1</v>
+        <v>4217</v>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>1388</v>
       </c>
       <c r="H47" t="n">
-        <v>6.2</v>
+        <v>3624</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>2065</v>
       </c>
       <c r="J47" t="n">
-        <v>6.5</v>
+        <v>3628</v>
       </c>
       <c r="K47" t="n">
-        <v>5.86</v>
+        <v>2984.4</v>
       </c>
       <c r="L47" t="n">
-        <v>5.825</v>
+        <v>3214.25</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1749999999999998</v>
+        <v>-1149.25</v>
       </c>
       <c r="N47" t="n">
-        <v>0.03004291845493559</v>
+        <v>-0.3575484172046356</v>
       </c>
     </row>
     <row r="48">
@@ -2906,45 +2906,45 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>279.9</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="n">
-        <v>300</v>
+        <v>6000</v>
       </c>
       <c r="H48" t="n">
-        <v>297.5</v>
+        <v>9500</v>
       </c>
       <c r="I48" t="n">
-        <v>213.2</v>
+        <v>6000</v>
       </c>
       <c r="J48" t="n">
-        <v>250</v>
+        <v>7000</v>
       </c>
       <c r="K48" t="n">
-        <v>268.12</v>
+        <v>6500</v>
       </c>
       <c r="L48" t="n">
-        <v>281.85</v>
+        <v>6625</v>
       </c>
       <c r="M48" t="n">
-        <v>-68.65000000000003</v>
+        <v>-625</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.2435692744367572</v>
+        <v>-0.09433962264150944</v>
       </c>
     </row>
     <row r="49">
@@ -2958,45 +2958,45 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t>1 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>17000</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="K49" t="n">
-        <v>0.6</v>
+        <v>14400</v>
       </c>
       <c r="L49" t="n">
-        <v>0.75</v>
+        <v>15750</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.75</v>
+        <v>-6750</v>
       </c>
       <c r="N49" t="n">
-        <v>-1</v>
+        <v>-0.4285714285714285</v>
       </c>
     </row>
     <row r="50">
@@ -3010,45 +3010,45 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>8000</v>
+        <v>64</v>
       </c>
       <c r="G50" t="n">
-        <v>12000</v>
+        <v>73</v>
       </c>
       <c r="H50" t="n">
-        <v>14500</v>
+        <v>80</v>
       </c>
       <c r="I50" t="n">
-        <v>8250</v>
+        <v>78</v>
       </c>
       <c r="J50" t="n">
-        <v>9000</v>
+        <v>84</v>
       </c>
       <c r="K50" t="n">
-        <v>10350</v>
+        <v>75.8</v>
       </c>
       <c r="L50" t="n">
-        <v>10875</v>
+        <v>75.25</v>
       </c>
       <c r="M50" t="n">
-        <v>-2625</v>
+        <v>2.75</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.2413793103448276</v>
+        <v>0.03654485049833887</v>
       </c>
     </row>
     <row r="51">
@@ -3062,45 +3062,45 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>12000</v>
+        <v>85</v>
       </c>
       <c r="H51" t="n">
-        <v>17000</v>
+        <v>50</v>
       </c>
       <c r="I51" t="n">
-        <v>9000</v>
+        <v>145</v>
       </c>
       <c r="J51" t="n">
-        <v>14000</v>
+        <v>215</v>
       </c>
       <c r="K51" t="n">
-        <v>14400</v>
+        <v>99</v>
       </c>
       <c r="L51" t="n">
-        <v>15750</v>
+        <v>87.5</v>
       </c>
       <c r="M51" t="n">
-        <v>-6750</v>
+        <v>57.5</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.4285714285714285</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="52">
@@ -3119,40 +3119,40 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>2 - a - Retail Income ($000s)</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>50333.5</v>
       </c>
       <c r="G52" t="n">
-        <v>85</v>
+        <v>57500</v>
       </c>
       <c r="H52" t="n">
-        <v>50</v>
+        <v>58075</v>
       </c>
       <c r="I52" t="n">
-        <v>145</v>
+        <v>25070</v>
       </c>
       <c r="J52" t="n">
-        <v>215</v>
+        <v>44414</v>
       </c>
       <c r="K52" t="n">
-        <v>99</v>
+        <v>47078.5</v>
       </c>
       <c r="L52" t="n">
-        <v>87.5</v>
+        <v>52580.625</v>
       </c>
       <c r="M52" t="n">
-        <v>57.5</v>
+        <v>-27510.625</v>
       </c>
       <c r="N52" t="n">
-        <v>0.6571428571428571</v>
+        <v>-0.5232084061381925</v>
       </c>
     </row>
     <row r="53">
@@ -3171,40 +3171,40 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>2 - b - Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>64</v>
+        <v>98.5</v>
       </c>
       <c r="G53" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="H53" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="I53" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="J53" t="n">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="K53" t="n">
-        <v>75.8</v>
+        <v>105.7</v>
       </c>
       <c r="L53" t="n">
-        <v>75.25</v>
+        <v>104.875</v>
       </c>
       <c r="M53" t="n">
-        <v>2.75</v>
+        <v>4.125</v>
       </c>
       <c r="N53" t="n">
-        <v>0.03654485049833887</v>
+        <v>0.03933253873659118</v>
       </c>
     </row>
     <row r="54">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t>2 - c - Online Orders (000s)</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -3275,12 +3275,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+          <t>2 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3327,12 +3327,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+          <t>2 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3374,45 +3374,45 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+          <t>2 - e - Model Availability</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>279.9</v>
       </c>
       <c r="G57" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="H57" t="n">
-        <v>75</v>
+        <v>297.5</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>213.2</v>
       </c>
       <c r="J57" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="K57" t="n">
-        <v>32</v>
+        <v>268.12</v>
       </c>
       <c r="L57" t="n">
-        <v>40</v>
+        <v>281.85</v>
       </c>
       <c r="M57" t="n">
-        <v>-40</v>
+        <v>-68.65000000000003</v>
       </c>
       <c r="N57" t="n">
-        <v>-1</v>
+        <v>-0.2435692744367572</v>
       </c>
     </row>
     <row r="58">
@@ -3426,45 +3426,45 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="G58" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="H58" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J58" t="n">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="K58" t="n">
-        <v>2.8</v>
+        <v>5.86</v>
       </c>
       <c r="L58" t="n">
-        <v>3.5</v>
+        <v>5.825</v>
       </c>
       <c r="M58" t="n">
-        <v>-3.5</v>
+        <v>0.1749999999999998</v>
       </c>
       <c r="N58" t="n">
-        <v>-1</v>
+        <v>0.03004291845493559</v>
       </c>
     </row>
     <row r="59">
@@ -3478,42 +3478,42 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Offered (000s)</t>
+          <t>2 - f - Free Shipping</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>779</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>382.8</v>
+        <v>0.6</v>
       </c>
       <c r="L59" t="n">
-        <v>478.5</v>
+        <v>0.75</v>
       </c>
       <c r="M59" t="n">
-        <v>-478.5</v>
+        <v>-0.75</v>
       </c>
       <c r="N59" t="n">
         <v>-1</v>
@@ -3530,45 +3530,45 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+          <t>2 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G60" t="n">
-        <v>536</v>
+        <v>12000</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="J60" t="n">
-        <v>599</v>
+        <v>14000</v>
       </c>
       <c r="K60" t="n">
-        <v>227</v>
+        <v>14400</v>
       </c>
       <c r="L60" t="n">
-        <v>283.75</v>
+        <v>15750</v>
       </c>
       <c r="M60" t="n">
-        <v>-283.75</v>
+        <v>-6750</v>
       </c>
       <c r="N60" t="n">
-        <v>-1</v>
+        <v>-0.4285714285714285</v>
       </c>
     </row>
     <row r="61">
@@ -3582,45 +3582,45 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G61" t="n">
-        <v>0.354</v>
+        <v>73</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J61" t="n">
-        <v>0.395</v>
+        <v>84</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1498</v>
+        <v>75.8</v>
       </c>
       <c r="L61" t="n">
-        <v>0.18725</v>
+        <v>75.25</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.18725</v>
+        <v>2.75</v>
       </c>
       <c r="N61" t="n">
-        <v>-1</v>
+        <v>0.03654485049833887</v>
       </c>
     </row>
     <row r="62">
@@ -3629,50 +3629,50 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t>2 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H62" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I62" t="n">
-        <v>61.5</v>
+        <v>145</v>
       </c>
       <c r="J62" t="n">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="K62" t="n">
-        <v>63.6</v>
+        <v>99</v>
       </c>
       <c r="L62" t="n">
-        <v>64.125</v>
+        <v>87.5</v>
       </c>
       <c r="M62" t="n">
-        <v>-2.625</v>
+        <v>57.5</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.04093567251461988</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="63">
@@ -3681,50 +3681,50 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>12000</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>14500</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>8250</v>
       </c>
       <c r="J63" t="n">
-        <v>5</v>
+        <v>9000</v>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>10350</v>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>10875</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>-2625</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>-0.2413793103448276</v>
       </c>
     </row>
     <row r="64">
@@ -3733,50 +3733,50 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>3 - a - Offer Income ($000s)</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>5.3</v>
+        <v>24120</v>
       </c>
       <c r="H64" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>6.7</v>
+        <v>23960</v>
       </c>
       <c r="K64" t="n">
-        <v>5.84</v>
+        <v>9616</v>
       </c>
       <c r="L64" t="n">
-        <v>5.824999999999999</v>
+        <v>12020</v>
       </c>
       <c r="M64" t="n">
-        <v>0.07500000000000107</v>
+        <v>-12020</v>
       </c>
       <c r="N64" t="n">
-        <v>0.01287553648068688</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
@@ -3785,50 +3785,50 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>3 - b - Offer Price (max = $40.00)</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>345.4</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="H65" t="n">
-        <v>298.6</v>
+        <v>75</v>
       </c>
       <c r="I65" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="K65" t="n">
-        <v>278.6</v>
+        <v>32</v>
       </c>
       <c r="L65" t="n">
-        <v>298.25</v>
+        <v>40</v>
       </c>
       <c r="M65" t="n">
-        <v>-98.25</v>
+        <v>-40</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.3294216261525566</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
@@ -3837,50 +3837,50 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t>3 - c - Pairs Offered (000s)</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>536</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>599</v>
       </c>
       <c r="K66" t="n">
-        <v>2.2</v>
+        <v>382.8</v>
       </c>
       <c r="L66" t="n">
-        <v>2.25</v>
+        <v>478.5</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.25</v>
+        <v>-478.5</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.1111111111111111</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -3889,50 +3889,50 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t>3 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>3000</v>
+        <v>536</v>
       </c>
       <c r="H67" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>6000</v>
+        <v>599</v>
       </c>
       <c r="K67" t="n">
-        <v>5300</v>
+        <v>227</v>
       </c>
       <c r="L67" t="n">
-        <v>5125</v>
+        <v>283.75</v>
       </c>
       <c r="M67" t="n">
-        <v>875</v>
+        <v>-283.75</v>
       </c>
       <c r="N67" t="n">
-        <v>0.1707317073170732</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68">
@@ -3941,50 +3941,50 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t>3 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1646</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>538</v>
+        <v>0.354</v>
       </c>
       <c r="H68" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>4460</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2586</v>
+        <v>0.395</v>
       </c>
       <c r="K68" t="n">
-        <v>2116</v>
+        <v>0.1498</v>
       </c>
       <c r="L68" t="n">
-        <v>1530</v>
+        <v>0.18725</v>
       </c>
       <c r="M68" t="n">
-        <v>2930</v>
+        <v>-0.18725</v>
       </c>
       <c r="N68" t="n">
-        <v>1.915032679738562</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -3993,50 +3993,50 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>5000</v>
+        <v>4.6</v>
       </c>
       <c r="H69" t="n">
-        <v>11000</v>
+        <v>4.7</v>
       </c>
       <c r="I69" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>14000</v>
+        <v>4.7</v>
       </c>
       <c r="K69" t="n">
-        <v>12200</v>
+        <v>2.8</v>
       </c>
       <c r="L69" t="n">
-        <v>11500</v>
+        <v>3.5</v>
       </c>
       <c r="M69" t="n">
-        <v>3500</v>
+        <v>-3.5</v>
       </c>
       <c r="N69" t="n">
-        <v>0.3043478260869565</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
@@ -4055,40 +4055,40 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - a - Wholesale Income ($000s)</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>90306.5</v>
       </c>
       <c r="G70" t="n">
-        <v>60</v>
+        <v>60363</v>
       </c>
       <c r="H70" t="n">
-        <v>60</v>
+        <v>69069</v>
       </c>
       <c r="I70" t="n">
-        <v>155</v>
+        <v>148925</v>
       </c>
       <c r="J70" t="n">
-        <v>235</v>
+        <v>125040</v>
       </c>
       <c r="K70" t="n">
-        <v>102</v>
+        <v>98740.7</v>
       </c>
       <c r="L70" t="n">
-        <v>88.75</v>
+        <v>86194.625</v>
       </c>
       <c r="M70" t="n">
-        <v>66.25</v>
+        <v>62730.375</v>
       </c>
       <c r="N70" t="n">
-        <v>0.7464788732394366</v>
+        <v>0.7277759489063268</v>
       </c>
     </row>
     <row r="71">
@@ -4107,40 +4107,40 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="G71" t="n">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="K71" t="n">
-        <v>75.8</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
-        <v>75.25</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0.03654485049833887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -4159,40 +4159,40 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1657</v>
+        <v>54.5</v>
       </c>
       <c r="G72" t="n">
-        <v>1059</v>
+        <v>57</v>
       </c>
       <c r="H72" t="n">
-        <v>1001</v>
+        <v>69</v>
       </c>
       <c r="I72" t="n">
-        <v>2590</v>
+        <v>57.5</v>
       </c>
       <c r="J72" t="n">
-        <v>2084</v>
+        <v>60</v>
       </c>
       <c r="K72" t="n">
-        <v>1678.2</v>
+        <v>59.6</v>
       </c>
       <c r="L72" t="n">
-        <v>1450.25</v>
+        <v>60.125</v>
       </c>
       <c r="M72" t="n">
-        <v>1139.75</v>
+        <v>-2.625</v>
       </c>
       <c r="N72" t="n">
-        <v>0.7858989829339769</v>
+        <v>-0.04365904365904366</v>
       </c>
     </row>
     <row r="73">
@@ -4211,39 +4211,41 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>63.6</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>64.125</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>-2.625</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.04093567251461988</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4261,41 +4263,39 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1657</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1059</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>2590</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2084</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1678.2</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>1450.25</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1139.75</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.7858989829339769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4313,40 +4313,40 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+          <t>1 - c - Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.1975</v>
+        <v>1657</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1262</v>
+        <v>1059</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1193</v>
+        <v>1001</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3087</v>
+        <v>2590</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2484</v>
+        <v>2084</v>
       </c>
       <c r="K75" t="n">
-        <v>0.20002</v>
+        <v>1678.2</v>
       </c>
       <c r="L75" t="n">
-        <v>0.17285</v>
+        <v>1450.25</v>
       </c>
       <c r="M75" t="n">
-        <v>0.13585</v>
+        <v>1139.75</v>
       </c>
       <c r="N75" t="n">
-        <v>0.7859415678333813</v>
+        <v>0.7858989829339769</v>
       </c>
     </row>
     <row r="76">
@@ -4360,45 +4360,45 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t>1 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>88.5</v>
+        <v>1657</v>
       </c>
       <c r="G76" t="n">
-        <v>90</v>
+        <v>1059</v>
       </c>
       <c r="H76" t="n">
-        <v>105</v>
+        <v>1001</v>
       </c>
       <c r="I76" t="n">
-        <v>100</v>
+        <v>2590</v>
       </c>
       <c r="J76" t="n">
-        <v>101</v>
+        <v>2084</v>
       </c>
       <c r="K76" t="n">
-        <v>96.90000000000001</v>
+        <v>1678.2</v>
       </c>
       <c r="L76" t="n">
-        <v>96.125</v>
+        <v>1450.25</v>
       </c>
       <c r="M76" t="n">
-        <v>3.875</v>
+        <v>1139.75</v>
       </c>
       <c r="N76" t="n">
-        <v>0.04031209362808843</v>
+        <v>0.7858989829339769</v>
       </c>
     </row>
     <row r="77">
@@ -4412,45 +4412,45 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5.1</v>
+        <v>0.1975</v>
       </c>
       <c r="G77" t="n">
-        <v>5.3</v>
+        <v>0.1262</v>
       </c>
       <c r="H77" t="n">
-        <v>6.2</v>
+        <v>0.1193</v>
       </c>
       <c r="I77" t="n">
-        <v>5.9</v>
+        <v>0.3087</v>
       </c>
       <c r="J77" t="n">
-        <v>6.7</v>
+        <v>0.2484</v>
       </c>
       <c r="K77" t="n">
-        <v>5.84</v>
+        <v>0.20002</v>
       </c>
       <c r="L77" t="n">
-        <v>5.824999999999999</v>
+        <v>0.17285</v>
       </c>
       <c r="M77" t="n">
-        <v>0.07500000000000107</v>
+        <v>0.13585</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01287553648068688</v>
+        <v>0.7859415678333813</v>
       </c>
     </row>
     <row r="78">
@@ -4464,17 +4464,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>1 - e - Model Availability</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4516,45 +4516,45 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6</v>
+        <v>5.84</v>
       </c>
       <c r="L79" t="n">
-        <v>0.5</v>
+        <v>5.824999999999999</v>
       </c>
       <c r="M79" t="n">
-        <v>0.5</v>
+        <v>0.07500000000000107</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0.01287553648068688</v>
       </c>
     </row>
     <row r="80">
@@ -4568,45 +4568,45 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t>1 - f - Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>6000</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
-        <v>8000</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>7000</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>7200</v>
+        <v>2.2</v>
       </c>
       <c r="L80" t="n">
-        <v>6500</v>
+        <v>2.25</v>
       </c>
       <c r="M80" t="n">
-        <v>3500</v>
+        <v>-0.25</v>
       </c>
       <c r="N80" t="n">
-        <v>0.5384615384615384</v>
+        <v>-0.1111111111111111</v>
       </c>
     </row>
     <row r="81">
@@ -4620,45 +4620,45 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - f - Retail Outlets</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>16000</v>
+        <v>1646</v>
       </c>
       <c r="G81" t="n">
-        <v>5000</v>
+        <v>538</v>
       </c>
       <c r="H81" t="n">
-        <v>11000</v>
+        <v>1350</v>
       </c>
       <c r="I81" t="n">
-        <v>15000</v>
+        <v>4460</v>
       </c>
       <c r="J81" t="n">
-        <v>14000</v>
+        <v>2586</v>
       </c>
       <c r="K81" t="n">
-        <v>12200</v>
+        <v>2116</v>
       </c>
       <c r="L81" t="n">
-        <v>11500</v>
+        <v>1530</v>
       </c>
       <c r="M81" t="n">
-        <v>3500</v>
+        <v>2930</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3043478260869565</v>
+        <v>1.915032679738562</v>
       </c>
     </row>
     <row r="82">
@@ -4672,45 +4672,45 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G82" t="n">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="H82" t="n">
-        <v>60</v>
+        <v>7500</v>
       </c>
       <c r="I82" t="n">
-        <v>155</v>
+        <v>6000</v>
       </c>
       <c r="J82" t="n">
-        <v>235</v>
+        <v>6000</v>
       </c>
       <c r="K82" t="n">
-        <v>102</v>
+        <v>5300</v>
       </c>
       <c r="L82" t="n">
-        <v>88.75</v>
+        <v>5125</v>
       </c>
       <c r="M82" t="n">
-        <v>66.25</v>
+        <v>875</v>
       </c>
       <c r="N82" t="n">
-        <v>0.7464788732394366</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="83">
@@ -4724,45 +4724,45 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>64</v>
+        <v>16000</v>
       </c>
       <c r="G83" t="n">
-        <v>73</v>
+        <v>5000</v>
       </c>
       <c r="H83" t="n">
-        <v>80</v>
+        <v>11000</v>
       </c>
       <c r="I83" t="n">
-        <v>78</v>
+        <v>15000</v>
       </c>
       <c r="J83" t="n">
-        <v>84</v>
+        <v>14000</v>
       </c>
       <c r="K83" t="n">
-        <v>75.8</v>
+        <v>12200</v>
       </c>
       <c r="L83" t="n">
-        <v>75.25</v>
+        <v>11500</v>
       </c>
       <c r="M83" t="n">
-        <v>2.75</v>
+        <v>3500</v>
       </c>
       <c r="N83" t="n">
-        <v>0.03654485049833887</v>
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="84">
@@ -4776,45 +4776,45 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>526</v>
+        <v>64</v>
       </c>
       <c r="G84" t="n">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c r="H84" t="n">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="I84" t="n">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="J84" t="n">
-        <v>389</v>
+        <v>84</v>
       </c>
       <c r="K84" t="n">
-        <v>397</v>
+        <v>75.8</v>
       </c>
       <c r="L84" t="n">
-        <v>383</v>
+        <v>75.25</v>
       </c>
       <c r="M84" t="n">
-        <v>70</v>
+        <v>2.75</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1827676240208877</v>
+        <v>0.03654485049833887</v>
       </c>
     </row>
     <row r="85">
@@ -4828,45 +4828,45 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+          <t>1 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="H85" t="n">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="I85" t="n">
-        <v>453</v>
+        <v>155</v>
       </c>
       <c r="J85" t="n">
-        <v>389</v>
+        <v>235</v>
       </c>
       <c r="K85" t="n">
-        <v>397</v>
+        <v>102</v>
       </c>
       <c r="L85" t="n">
-        <v>383</v>
+        <v>88.75</v>
       </c>
       <c r="M85" t="n">
-        <v>70</v>
+        <v>66.25</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1827676240208877</v>
+        <v>0.7464788732394366</v>
       </c>
     </row>
     <row r="86">
@@ -4885,40 +4885,40 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+          <t>2 - a - Retail Income ($000s)</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.265</v>
+        <v>46551</v>
       </c>
       <c r="G86" t="n">
-        <v>0.127</v>
+        <v>22680</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1839</v>
+        <v>38325</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2282</v>
+        <v>45300</v>
       </c>
       <c r="J86" t="n">
-        <v>0.196</v>
+        <v>39289</v>
       </c>
       <c r="K86" t="n">
-        <v>0.20002</v>
+        <v>38429</v>
       </c>
       <c r="L86" t="n">
-        <v>0.192975</v>
+        <v>36711.25</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03522499999999998</v>
+        <v>8588.75</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1825365980049228</v>
+        <v>0.2339541693622527</v>
       </c>
     </row>
     <row r="87">
@@ -4932,45 +4932,45 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+          <t>2 - b - Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="G87" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H87" t="n">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J87" t="n">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="K87" t="n">
-        <v>30.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="L87" t="n">
-        <v>37.75</v>
+        <v>96.125</v>
       </c>
       <c r="M87" t="n">
-        <v>-37.75</v>
+        <v>3.875</v>
       </c>
       <c r="N87" t="n">
-        <v>-1</v>
+        <v>0.04031209362808843</v>
       </c>
     </row>
     <row r="88">
@@ -4984,45 +4984,45 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+          <t>2 - c - Online Orders (000s)</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="G88" t="n">
-        <v>4.6</v>
+        <v>252</v>
       </c>
       <c r="H88" t="n">
-        <v>4.7</v>
+        <v>365</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="J88" t="n">
-        <v>4.7</v>
+        <v>389</v>
       </c>
       <c r="K88" t="n">
-        <v>2.8</v>
+        <v>397</v>
       </c>
       <c r="L88" t="n">
-        <v>3.5</v>
+        <v>383</v>
       </c>
       <c r="M88" t="n">
-        <v>-3.5</v>
+        <v>70</v>
       </c>
       <c r="N88" t="n">
-        <v>-1</v>
+        <v>0.1827676240208877</v>
       </c>
     </row>
     <row r="89">
@@ -5036,45 +5036,45 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Offered (000s)</t>
+          <t>2 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="G89" t="n">
-        <v>573</v>
+        <v>252</v>
       </c>
       <c r="H89" t="n">
-        <v>966</v>
+        <v>365</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="J89" t="n">
-        <v>642</v>
+        <v>389</v>
       </c>
       <c r="K89" t="n">
-        <v>436.2</v>
+        <v>397</v>
       </c>
       <c r="L89" t="n">
-        <v>545.25</v>
+        <v>383</v>
       </c>
       <c r="M89" t="n">
-        <v>-545.25</v>
+        <v>70</v>
       </c>
       <c r="N89" t="n">
-        <v>-1</v>
+        <v>0.1827676240208877</v>
       </c>
     </row>
     <row r="90">
@@ -5088,45 +5088,45 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+          <t>2 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>0.265</v>
       </c>
       <c r="G90" t="n">
-        <v>573</v>
+        <v>0.127</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.1839</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>0.2282</v>
       </c>
       <c r="J90" t="n">
-        <v>642</v>
+        <v>0.196</v>
       </c>
       <c r="K90" t="n">
-        <v>243</v>
+        <v>0.20002</v>
       </c>
       <c r="L90" t="n">
-        <v>303.75</v>
+        <v>0.192975</v>
       </c>
       <c r="M90" t="n">
-        <v>-303.75</v>
+        <v>0.03522499999999998</v>
       </c>
       <c r="N90" t="n">
-        <v>-1</v>
+        <v>0.1825365980049228</v>
       </c>
     </row>
     <row r="91">
@@ -5140,45 +5140,45 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+          <t>2 - e - Model Availability</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>345.4</v>
       </c>
       <c r="G91" t="n">
-        <v>0.353</v>
+        <v>299</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>298.6</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J91" t="n">
-        <v>0.395</v>
+        <v>250</v>
       </c>
       <c r="K91" t="n">
-        <v>0.1496</v>
+        <v>278.6</v>
       </c>
       <c r="L91" t="n">
-        <v>0.187</v>
+        <v>298.25</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.187</v>
+        <v>-98.25</v>
       </c>
       <c r="N91" t="n">
-        <v>-1</v>
+        <v>-0.3294216261525566</v>
       </c>
     </row>
     <row r="92">
@@ -5187,50 +5187,50 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>65</v>
+        <v>5.1</v>
       </c>
       <c r="G92" t="n">
-        <v>67</v>
+        <v>5.3</v>
       </c>
       <c r="H92" t="n">
-        <v>72</v>
+        <v>6.2</v>
       </c>
       <c r="I92" t="n">
-        <v>66</v>
+        <v>5.9</v>
       </c>
       <c r="J92" t="n">
-        <v>70</v>
+        <v>6.7</v>
       </c>
       <c r="K92" t="n">
-        <v>68</v>
+        <v>5.84</v>
       </c>
       <c r="L92" t="n">
-        <v>68.5</v>
+        <v>5.824999999999999</v>
       </c>
       <c r="M92" t="n">
-        <v>-2.5</v>
+        <v>0.07500000000000107</v>
       </c>
       <c r="N92" t="n">
-        <v>-0.0364963503649635</v>
+        <v>0.01287553648068688</v>
       </c>
     </row>
     <row r="93">
@@ -5239,50 +5239,50 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t>2 - f - Free Shipping</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="L93" t="n">
-        <v>4.75</v>
+        <v>0.5</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N93" t="n">
-        <v>-0.1578947368421053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -5291,50 +5291,50 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>2 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5.4</v>
+        <v>16000</v>
       </c>
       <c r="G94" t="n">
-        <v>5.8</v>
+        <v>5000</v>
       </c>
       <c r="H94" t="n">
-        <v>6.3</v>
+        <v>11000</v>
       </c>
       <c r="I94" t="n">
-        <v>6.2</v>
+        <v>15000</v>
       </c>
       <c r="J94" t="n">
-        <v>6</v>
+        <v>14000</v>
       </c>
       <c r="K94" t="n">
-        <v>5.94</v>
+        <v>12200</v>
       </c>
       <c r="L94" t="n">
-        <v>5.875</v>
+        <v>11500</v>
       </c>
       <c r="M94" t="n">
-        <v>0.3250000000000002</v>
+        <v>3500</v>
       </c>
       <c r="N94" t="n">
-        <v>0.05531914893617024</v>
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="95">
@@ -5343,50 +5343,50 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>203.4</v>
+        <v>64</v>
       </c>
       <c r="G95" t="n">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="H95" t="n">
-        <v>224.9</v>
+        <v>80</v>
       </c>
       <c r="I95" t="n">
-        <v>203.6</v>
+        <v>78</v>
       </c>
       <c r="J95" t="n">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="K95" t="n">
-        <v>236.38</v>
+        <v>75.8</v>
       </c>
       <c r="L95" t="n">
-        <v>244.575</v>
+        <v>75.25</v>
       </c>
       <c r="M95" t="n">
-        <v>-40.97499999999999</v>
+        <v>2.75</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.1675355208013901</v>
+        <v>0.03654485049833887</v>
       </c>
     </row>
     <row r="96">
@@ -5395,50 +5395,50 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t>2 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="K96" t="n">
-        <v>2.2</v>
+        <v>102</v>
       </c>
       <c r="L96" t="n">
-        <v>2.25</v>
+        <v>88.75</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.25</v>
+        <v>66.25</v>
       </c>
       <c r="N96" t="n">
-        <v>-0.1111111111111111</v>
+        <v>0.7464788732394366</v>
       </c>
     </row>
     <row r="97">
@@ -5447,50 +5447,50 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G97" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="H97" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="I97" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="J97" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="K97" t="n">
-        <v>5800</v>
+        <v>7200</v>
       </c>
       <c r="L97" t="n">
-        <v>5250</v>
+        <v>6500</v>
       </c>
       <c r="M97" t="n">
-        <v>2750</v>
+        <v>3500</v>
       </c>
       <c r="N97" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="98">
@@ -5499,50 +5499,50 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t>3 - a - Offer Income ($000s)</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1498</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>700</v>
+        <v>25785</v>
       </c>
       <c r="H98" t="n">
-        <v>1037</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>3748</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1344</v>
+        <v>22470</v>
       </c>
       <c r="K98" t="n">
-        <v>1665.4</v>
+        <v>9651</v>
       </c>
       <c r="L98" t="n">
-        <v>1144.75</v>
+        <v>12063.75</v>
       </c>
       <c r="M98" t="n">
-        <v>2603.25</v>
+        <v>-12063.75</v>
       </c>
       <c r="N98" t="n">
-        <v>2.274077309456213</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99">
@@ -5551,50 +5551,50 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>3 - b - Offer Price (max = $40.00)</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>12000</v>
+        <v>45</v>
       </c>
       <c r="H99" t="n">
-        <v>11000</v>
+        <v>71</v>
       </c>
       <c r="I99" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>10500</v>
+        <v>35</v>
       </c>
       <c r="K99" t="n">
-        <v>12100</v>
+        <v>30.2</v>
       </c>
       <c r="L99" t="n">
-        <v>12125</v>
+        <v>37.75</v>
       </c>
       <c r="M99" t="n">
-        <v>-125</v>
+        <v>-37.75</v>
       </c>
       <c r="N99" t="n">
-        <v>-0.01030927835051546</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -5603,50 +5603,50 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>3 - c - Pairs Offered (000s)</t>
         </is>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>100</v>
+        <v>573</v>
       </c>
       <c r="H100" t="n">
-        <v>95</v>
+        <v>966</v>
       </c>
       <c r="I100" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>195</v>
+        <v>642</v>
       </c>
       <c r="K100" t="n">
-        <v>98</v>
+        <v>436.2</v>
       </c>
       <c r="L100" t="n">
-        <v>97.5</v>
+        <v>545.25</v>
       </c>
       <c r="M100" t="n">
-        <v>2.5</v>
+        <v>-545.25</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02564102564102564</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -5655,50 +5655,50 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>3 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>73</v>
+        <v>573</v>
       </c>
       <c r="H101" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>84</v>
+        <v>642</v>
       </c>
       <c r="K101" t="n">
-        <v>75.8</v>
+        <v>243</v>
       </c>
       <c r="L101" t="n">
-        <v>75.25</v>
+        <v>303.75</v>
       </c>
       <c r="M101" t="n">
-        <v>2.75</v>
+        <v>-303.75</v>
       </c>
       <c r="N101" t="n">
-        <v>0.03654485049833887</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -5707,50 +5707,50 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t>3 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1385</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1702</v>
+        <v>0.353</v>
       </c>
       <c r="H102" t="n">
-        <v>1159</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>2649</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1580</v>
+        <v>0.395</v>
       </c>
       <c r="K102" t="n">
-        <v>1695</v>
+        <v>0.1496</v>
       </c>
       <c r="L102" t="n">
-        <v>1456.5</v>
+        <v>0.187</v>
       </c>
       <c r="M102" t="n">
-        <v>1192.5</v>
+        <v>-0.187</v>
       </c>
       <c r="N102" t="n">
-        <v>0.8187435633367662</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
@@ -5759,49 +5759,51 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
         </is>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>-3.5</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5819,40 +5821,40 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+          <t>1 - a - Wholesale Income ($000s)</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1385</v>
+        <v>83100</v>
       </c>
       <c r="G104" t="n">
-        <v>1702</v>
+        <v>103822</v>
       </c>
       <c r="H104" t="n">
-        <v>1159</v>
+        <v>79971</v>
       </c>
       <c r="I104" t="n">
-        <v>2649</v>
+        <v>164238</v>
       </c>
       <c r="J104" t="n">
-        <v>1580</v>
+        <v>102700</v>
       </c>
       <c r="K104" t="n">
-        <v>1695</v>
+        <v>106766.2</v>
       </c>
       <c r="L104" t="n">
-        <v>1456.5</v>
+        <v>92398.25</v>
       </c>
       <c r="M104" t="n">
-        <v>1192.5</v>
+        <v>71839.75</v>
       </c>
       <c r="N104" t="n">
-        <v>0.8187435633367662</v>
+        <v>0.7775011972629352</v>
       </c>
     </row>
     <row r="105">
@@ -5871,40 +5873,40 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.1634</v>
+        <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2008</v>
+        <v>6</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1368</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3126</v>
+        <v>4</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1864</v>
+        <v>5</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2</v>
+        <v>4.6</v>
       </c>
       <c r="L105" t="n">
-        <v>0.17185</v>
+        <v>4.75</v>
       </c>
       <c r="M105" t="n">
-        <v>0.14075</v>
+        <v>-0.75</v>
       </c>
       <c r="N105" t="n">
-        <v>0.819028222286878</v>
+        <v>-0.1578947368421053</v>
       </c>
     </row>
     <row r="106">
@@ -5918,45 +5920,45 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="G106" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="H106" t="n">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="I106" t="n">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="J106" t="n">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="K106" t="n">
-        <v>101.2</v>
+        <v>63.4</v>
       </c>
       <c r="L106" t="n">
-        <v>100.25</v>
+        <v>63.75</v>
       </c>
       <c r="M106" t="n">
-        <v>4.75</v>
+        <v>-1.75</v>
       </c>
       <c r="N106" t="n">
-        <v>0.04738154613466334</v>
+        <v>-0.02745098039215686</v>
       </c>
     </row>
     <row r="107">
@@ -5970,45 +5972,45 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5.4</v>
+        <v>65</v>
       </c>
       <c r="G107" t="n">
-        <v>5.8</v>
+        <v>67</v>
       </c>
       <c r="H107" t="n">
-        <v>6.3</v>
+        <v>72</v>
       </c>
       <c r="I107" t="n">
-        <v>6.2</v>
+        <v>66</v>
       </c>
       <c r="J107" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="K107" t="n">
-        <v>5.94</v>
+        <v>68</v>
       </c>
       <c r="L107" t="n">
-        <v>5.875</v>
+        <v>68.5</v>
       </c>
       <c r="M107" t="n">
-        <v>0.3250000000000002</v>
+        <v>-2.5</v>
       </c>
       <c r="N107" t="n">
-        <v>0.05531914893617024</v>
+        <v>-0.0364963503649635</v>
       </c>
     </row>
     <row r="108">
@@ -6022,46 +6024,44 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>203.4</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>224.9</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>203.6</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>236.38</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>244.575</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>-40.97499999999999</v>
-      </c>
-      <c r="N108" t="n">
-        <v>-0.1675355208013901</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6074,45 +6074,45 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t>1 - c - Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>1385</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>1702</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>1159</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>2649</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1580</v>
       </c>
       <c r="K109" t="n">
-        <v>0.8</v>
+        <v>1695</v>
       </c>
       <c r="L109" t="n">
-        <v>0.75</v>
+        <v>1456.5</v>
       </c>
       <c r="M109" t="n">
-        <v>0.25</v>
+        <v>1192.5</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8187435633367662</v>
       </c>
     </row>
     <row r="110">
@@ -6126,45 +6126,45 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t>1 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5000</v>
+        <v>1385</v>
       </c>
       <c r="G110" t="n">
-        <v>6000</v>
+        <v>1702</v>
       </c>
       <c r="H110" t="n">
-        <v>8000</v>
+        <v>1159</v>
       </c>
       <c r="I110" t="n">
-        <v>10000</v>
+        <v>2649</v>
       </c>
       <c r="J110" t="n">
-        <v>6000</v>
+        <v>1580</v>
       </c>
       <c r="K110" t="n">
-        <v>7000</v>
+        <v>1695</v>
       </c>
       <c r="L110" t="n">
-        <v>6250</v>
+        <v>1456.5</v>
       </c>
       <c r="M110" t="n">
-        <v>3750</v>
+        <v>1192.5</v>
       </c>
       <c r="N110" t="n">
-        <v>0.6</v>
+        <v>0.8187435633367662</v>
       </c>
     </row>
     <row r="111">
@@ -6178,45 +6178,45 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>15000</v>
+        <v>0.1634</v>
       </c>
       <c r="G111" t="n">
-        <v>12000</v>
+        <v>0.2008</v>
       </c>
       <c r="H111" t="n">
-        <v>11000</v>
+        <v>0.1368</v>
       </c>
       <c r="I111" t="n">
-        <v>12000</v>
+        <v>0.3126</v>
       </c>
       <c r="J111" t="n">
-        <v>10500</v>
+        <v>0.1864</v>
       </c>
       <c r="K111" t="n">
-        <v>12100</v>
+        <v>0.2</v>
       </c>
       <c r="L111" t="n">
-        <v>12125</v>
+        <v>0.17185</v>
       </c>
       <c r="M111" t="n">
-        <v>-125</v>
+        <v>0.14075</v>
       </c>
       <c r="N111" t="n">
-        <v>-0.01030927835051546</v>
+        <v>0.819028222286878</v>
       </c>
     </row>
     <row r="112">
@@ -6230,45 +6230,45 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - e - Model Availability</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>203.4</v>
       </c>
       <c r="G112" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H112" t="n">
-        <v>95</v>
+        <v>224.9</v>
       </c>
       <c r="I112" t="n">
-        <v>100</v>
+        <v>203.6</v>
       </c>
       <c r="J112" t="n">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="K112" t="n">
-        <v>98</v>
+        <v>236.38</v>
       </c>
       <c r="L112" t="n">
-        <v>97.5</v>
+        <v>244.575</v>
       </c>
       <c r="M112" t="n">
-        <v>2.5</v>
+        <v>-40.97499999999999</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02564102564102564</v>
+        <v>-0.1675355208013901</v>
       </c>
     </row>
     <row r="113">
@@ -6282,45 +6282,45 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>64</v>
+        <v>5.4</v>
       </c>
       <c r="G113" t="n">
-        <v>73</v>
+        <v>5.8</v>
       </c>
       <c r="H113" t="n">
-        <v>80</v>
+        <v>6.3</v>
       </c>
       <c r="I113" t="n">
-        <v>78</v>
+        <v>6.2</v>
       </c>
       <c r="J113" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="K113" t="n">
-        <v>75.8</v>
+        <v>5.94</v>
       </c>
       <c r="L113" t="n">
-        <v>75.25</v>
+        <v>5.875</v>
       </c>
       <c r="M113" t="n">
-        <v>2.75</v>
+        <v>0.3250000000000002</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03654485049833887</v>
+        <v>0.05531914893617024</v>
       </c>
     </row>
     <row r="114">
@@ -6334,45 +6334,45 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t>1 - f - Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>382</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>455</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
-        <v>375</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>399</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="K114" t="n">
-        <v>391</v>
+        <v>2.2</v>
       </c>
       <c r="L114" t="n">
-        <v>389</v>
+        <v>2.25</v>
       </c>
       <c r="M114" t="n">
-        <v>10</v>
+        <v>-0.25</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02570694087403599</v>
+        <v>-0.1111111111111111</v>
       </c>
     </row>
     <row r="115">
@@ -6386,45 +6386,45 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+          <t>1 - f - Retail Outlets</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>382</v>
+        <v>1498</v>
       </c>
       <c r="G115" t="n">
-        <v>455</v>
+        <v>700</v>
       </c>
       <c r="H115" t="n">
-        <v>375</v>
+        <v>1037</v>
       </c>
       <c r="I115" t="n">
-        <v>399</v>
+        <v>3748</v>
       </c>
       <c r="J115" t="n">
-        <v>344</v>
+        <v>1344</v>
       </c>
       <c r="K115" t="n">
-        <v>391</v>
+        <v>1665.4</v>
       </c>
       <c r="L115" t="n">
-        <v>389</v>
+        <v>1144.75</v>
       </c>
       <c r="M115" t="n">
-        <v>10</v>
+        <v>2603.25</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02570694087403599</v>
+        <v>2.274077309456213</v>
       </c>
     </row>
     <row r="116">
@@ -6438,45 +6438,45 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.1954</v>
+        <v>4000</v>
       </c>
       <c r="G116" t="n">
-        <v>0.2327</v>
+        <v>4000</v>
       </c>
       <c r="H116" t="n">
-        <v>0.1918</v>
+        <v>7500</v>
       </c>
       <c r="I116" t="n">
-        <v>0.2041</v>
+        <v>8000</v>
       </c>
       <c r="J116" t="n">
-        <v>0.176</v>
+        <v>5500</v>
       </c>
       <c r="K116" t="n">
-        <v>0.2</v>
+        <v>5800</v>
       </c>
       <c r="L116" t="n">
-        <v>0.198975</v>
+        <v>5250</v>
       </c>
       <c r="M116" t="n">
-        <v>0.005124999999999991</v>
+        <v>2750</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02575700464882518</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="117">
@@ -6490,45 +6490,45 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+          <t>1 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G117" t="n">
-        <v>48</v>
+        <v>12000</v>
       </c>
       <c r="H117" t="n">
-        <v>71</v>
+        <v>11000</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="J117" t="n">
-        <v>40</v>
+        <v>10500</v>
       </c>
       <c r="K117" t="n">
-        <v>31.8</v>
+        <v>12100</v>
       </c>
       <c r="L117" t="n">
-        <v>39.75</v>
+        <v>12125</v>
       </c>
       <c r="M117" t="n">
-        <v>-39.75</v>
+        <v>-125</v>
       </c>
       <c r="N117" t="n">
-        <v>-1</v>
+        <v>-0.01030927835051546</v>
       </c>
     </row>
     <row r="118">
@@ -6542,45 +6542,45 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G118" t="n">
-        <v>4.6</v>
+        <v>73</v>
       </c>
       <c r="H118" t="n">
-        <v>4.7</v>
+        <v>80</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J118" t="n">
-        <v>4.7</v>
+        <v>84</v>
       </c>
       <c r="K118" t="n">
-        <v>2.8</v>
+        <v>75.8</v>
       </c>
       <c r="L118" t="n">
-        <v>3.5</v>
+        <v>75.25</v>
       </c>
       <c r="M118" t="n">
-        <v>-3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N118" t="n">
-        <v>-1</v>
+        <v>0.03654485049833887</v>
       </c>
     </row>
     <row r="119">
@@ -6594,45 +6594,45 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Offered (000s)</t>
+          <t>1 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>619</v>
+        <v>100</v>
       </c>
       <c r="H119" t="n">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J119" t="n">
-        <v>537</v>
+        <v>195</v>
       </c>
       <c r="K119" t="n">
-        <v>269.8</v>
+        <v>98</v>
       </c>
       <c r="L119" t="n">
-        <v>337.25</v>
+        <v>97.5</v>
       </c>
       <c r="M119" t="n">
-        <v>-337.25</v>
+        <v>2.5</v>
       </c>
       <c r="N119" t="n">
-        <v>-1</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="120">
@@ -6646,45 +6646,45 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+          <t>2 - a - Retail Income ($000s)</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>35144</v>
       </c>
       <c r="G120" t="n">
-        <v>619</v>
+        <v>45500</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>39375</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>41895</v>
       </c>
       <c r="J120" t="n">
-        <v>537</v>
+        <v>35776</v>
       </c>
       <c r="K120" t="n">
-        <v>231.2</v>
+        <v>39538</v>
       </c>
       <c r="L120" t="n">
-        <v>289</v>
+        <v>38948.75</v>
       </c>
       <c r="M120" t="n">
-        <v>-289</v>
+        <v>2946.25</v>
       </c>
       <c r="N120" t="n">
-        <v>-1</v>
+        <v>0.07564427613209666</v>
       </c>
     </row>
     <row r="121">
@@ -6698,44 +6698,876 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2 - b - Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>92</v>
+      </c>
+      <c r="G121" t="n">
+        <v>100</v>
+      </c>
+      <c r="H121" t="n">
+        <v>105</v>
+      </c>
+      <c r="I121" t="n">
+        <v>105</v>
+      </c>
+      <c r="J121" t="n">
+        <v>104</v>
+      </c>
+      <c r="K121" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="L121" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="M121" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.04738154613466334</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>14</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2 - c - Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>382</v>
+      </c>
+      <c r="G122" t="n">
+        <v>455</v>
+      </c>
+      <c r="H122" t="n">
+        <v>375</v>
+      </c>
+      <c r="I122" t="n">
+        <v>399</v>
+      </c>
+      <c r="J122" t="n">
+        <v>344</v>
+      </c>
+      <c r="K122" t="n">
+        <v>391</v>
+      </c>
+      <c r="L122" t="n">
+        <v>389</v>
+      </c>
+      <c r="M122" t="n">
+        <v>10</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.02570694087403599</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>14</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>382</v>
+      </c>
+      <c r="G123" t="n">
+        <v>455</v>
+      </c>
+      <c r="H123" t="n">
+        <v>375</v>
+      </c>
+      <c r="I123" t="n">
+        <v>399</v>
+      </c>
+      <c r="J123" t="n">
+        <v>344</v>
+      </c>
+      <c r="K123" t="n">
+        <v>391</v>
+      </c>
+      <c r="L123" t="n">
+        <v>389</v>
+      </c>
+      <c r="M123" t="n">
+        <v>10</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.02570694087403599</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>14</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.1954</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.2327</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.1918</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.2041</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.198975</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.005124999999999991</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.02575700464882518</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>14</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>203.4</v>
+      </c>
+      <c r="G125" t="n">
+        <v>300</v>
+      </c>
+      <c r="H125" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="I125" t="n">
+        <v>203.6</v>
+      </c>
+      <c r="J125" t="n">
+        <v>250</v>
+      </c>
+      <c r="K125" t="n">
+        <v>236.38</v>
+      </c>
+      <c r="L125" t="n">
+        <v>244.575</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-40.97499999999999</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-0.1675355208013901</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>14</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H126" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>6</v>
+      </c>
+      <c r="K126" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="L126" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.3250000000000002</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.05531914893617024</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>14</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2 - f - Free Shipping</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>14</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H128" t="n">
+        <v>11000</v>
+      </c>
+      <c r="I128" t="n">
+        <v>12000</v>
+      </c>
+      <c r="J128" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K128" t="n">
+        <v>12100</v>
+      </c>
+      <c r="L128" t="n">
+        <v>12125</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-125</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-0.01030927835051546</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>14</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>64</v>
+      </c>
+      <c r="G129" t="n">
+        <v>73</v>
+      </c>
+      <c r="H129" t="n">
+        <v>80</v>
+      </c>
+      <c r="I129" t="n">
+        <v>78</v>
+      </c>
+      <c r="J129" t="n">
+        <v>84</v>
+      </c>
+      <c r="K129" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="L129" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.03654485049833887</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>14</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>100</v>
+      </c>
+      <c r="H130" t="n">
+        <v>95</v>
+      </c>
+      <c r="I130" t="n">
+        <v>100</v>
+      </c>
+      <c r="J130" t="n">
+        <v>195</v>
+      </c>
+      <c r="K130" t="n">
+        <v>98</v>
+      </c>
+      <c r="L130" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>14</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H131" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I131" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J131" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K131" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L131" t="n">
+        <v>6250</v>
+      </c>
+      <c r="M131" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>14</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>3 - Privada</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>F - Cuota</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="n">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3 - a - Offer Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>29712</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>21480</v>
+      </c>
+      <c r="K132" t="n">
+        <v>10238.4</v>
+      </c>
+      <c r="L132" t="n">
+        <v>12798</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-12798</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>14</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>3 - b - Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>48</v>
+      </c>
+      <c r="H133" t="n">
+        <v>71</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>40</v>
+      </c>
+      <c r="K133" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="L133" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-39.75</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>14</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>619</v>
+      </c>
+      <c r="H134" t="n">
+        <v>193</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>537</v>
+      </c>
+      <c r="K134" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="L134" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-337.25</v>
+      </c>
+      <c r="N134" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>14</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>619</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>537</v>
+      </c>
+      <c r="K135" t="n">
+        <v>231.2</v>
+      </c>
+      <c r="L135" t="n">
+        <v>289</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-289</v>
+      </c>
+      <c r="N135" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>14</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>3 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
         <v>0.381</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
         <v>0.33</v>
       </c>
-      <c r="K121" t="n">
+      <c r="K136" t="n">
         <v>0.1422</v>
       </c>
-      <c r="L121" t="n">
+      <c r="L136" t="n">
         <v>0.17775</v>
       </c>
-      <c r="M121" t="n">
+      <c r="M136" t="n">
         <v>-0.17775</v>
       </c>
-      <c r="N121" t="n">
+      <c r="N136" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>14</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H137" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="N137" t="n">
         <v>-1</v>
       </c>
     </row>
